--- a/RQ2 FUMA findings/combined FGV Findings.xlsx
+++ b/RQ2 FUMA findings/combined FGV Findings.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelbateman/Documents/University/MSc Psychological Research Methods/PSYM210 Research Apprenticeship/ADNI Data/RQ2 Findings/FUMA FGV gene enrichment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelbateman/Documents/GitHub/sex_differences_CSF_proteins_brain_structure/RQ2 FUMA findings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D8D8E6-3076-B246-ADF6-FC944B121D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603EB952-BB05-9F48-8C9E-315B538B3868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{824739F3-5672-8A4F-B06E-6CEDE69A987F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{824739F3-5672-8A4F-B06E-6CEDE69A987F}"/>
   </bookViews>
   <sheets>
-    <sheet name="GTEx 30 general tissue types" sheetId="1" r:id="rId1"/>
+    <sheet name="GTEx 30 general tissue types" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="GTEx 54 tissue types" sheetId="2" r:id="rId2"/>
-    <sheet name="Gene Expression (30 tissues)" sheetId="3" r:id="rId3"/>
+    <sheet name="Gene Expression (30 tissues)" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="Gene Expression (54 tissues)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -3401,7 +3401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6967CC18-537D-7949-9F3C-40A517237956}">
   <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -11081,7 +11081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA3F6E7-1DC8-4D45-97CC-905EBE7AFB2A}">
   <dimension ref="A1:BD40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
